--- a/project/OtherAssets/Excle/A_Default/建筑组合.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑组合.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="BuildCommboInital" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>1_1_1_1</t>
+  </si>
+  <si>
+    <t>厨房</t>
+  </si>
+  <si>
+    <t>1_1_1_1_1</t>
   </si>
   <si>
     <t>二楼落地灯</t>
@@ -63,9 +69,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -77,6 +83,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -85,21 +121,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,31 +158,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,45 +184,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -198,24 +220,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,13 +236,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,169 +380,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,6 +427,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -439,6 +456,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -450,15 +476,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,17 +500,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,10 +533,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,19 +545,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,112 +566,112 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,16 +1054,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="86.375" customWidth="1"/>
+    <col min="1" max="2" width="27.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="86.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="89" customHeight="1" spans="1:3">
@@ -1128,17 +1134,25 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
+        <v>22005</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
         <v>32007</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="4"/>
@@ -1152,16 +1166,13 @@
     <row r="17" spans="3:3">
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
+    <row r="18" spans="3:3">
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="6"/>
@@ -1175,16 +1186,16 @@
       <c r="C21" s="4"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="6"/>
@@ -1205,15 +1216,16 @@
       <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="4"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="4"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="8"/>
@@ -1245,9 +1257,14 @@
       <c r="B34" s="9"/>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
+    <row r="35" spans="1:3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/OtherAssets/Excle/A_Default/建筑组合.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑组合.xlsx
@@ -69,9 +69,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -84,50 +84,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -135,6 +91,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -143,16 +144,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,23 +190,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -190,17 +206,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,20 +222,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,13 +236,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,43 +386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,19 +398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,97 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +427,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,11 +474,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,15 +513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -503,175 +527,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/project/OtherAssets/Excle/A_Default/建筑组合.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑组合.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="18468" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="BuildCommboInital" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>二楼落地灯</t>
+  </si>
+  <si>
+    <t>吧台坐位</t>
   </si>
 </sst>
 </file>
@@ -69,9 +72,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -83,6 +86,127 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -91,130 +215,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,25 +239,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,157 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,35 +430,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,11 +463,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,17 +502,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,10 +536,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,133 +548,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,7 +1060,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1154,6 +1157,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>32010</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="14" spans="3:3">
       <c r="C14" s="4"/>
     </row>

--- a/project/OtherAssets/Excle/A_Default/建筑组合.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑组合.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>吧台坐位</t>
-  </si>
-  <si>
-    <t>露台雅座底座</t>
   </si>
 </sst>
 </file>
@@ -75,8 +72,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -89,17 +86,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,75 +185,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,14 +208,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -210,24 +215,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,187 +239,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,6 +444,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,35 +504,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,17 +520,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,10 +536,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -551,133 +548,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,7 +1060,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1171,17 +1168,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>32011</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="14" spans="3:3">
       <c r="C14" s="4"/>
     </row>

--- a/project/OtherAssets/Excle/A_Default/建筑组合.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑组合.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>吧台坐位</t>
+  </si>
+  <si>
+    <t>露台雅座底座</t>
   </si>
 </sst>
 </file>
@@ -72,8 +75,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -86,91 +89,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,17 +114,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,6 +195,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -215,16 +210,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,31 +242,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,151 +398,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,36 +447,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,9 +477,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,13 +519,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,10 +539,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +551,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,7 +1063,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1168,6 +1171,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>32011</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="14" spans="3:3">
       <c r="C14" s="4"/>
     </row>
